--- a/Employee(1).xlsx
+++ b/Employee(1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Anand\Week-6\GithubPractical\Demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B381BCAA-48FF-4F96-82BF-36152E4BC146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A9CEB-62FD-4B1B-A907-7916B9D469A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>SFirstName</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Rajkot</t>
   </si>
 </sst>
 </file>
@@ -924,7 +930,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,6 +1018,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N12" t="s">
         <v>7</v>
